--- a/backup.xlsx
+++ b/backup.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Price</t>
+          <t>Frequency</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Product urls</t>
         </is>
@@ -471,17 +466,12 @@
           <t>Cedar Planter Plans / Raised Planter Box / planter box plans / garden box / Outdoor Planter / garden bed / Elevated Garden Bed</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6 98</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>86</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/809909681/cedar-planter-plans-raised-planter-box?click_key=0d176201648eb8a577db1b39af25cad9bc4ae97f%3A809909681&amp;click_sum=cb32cb1b&amp;ref=shop_home_active_1&amp;crt=1</t>
+      <c r="C2" t="n">
+        <v>104</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/in-en/listing/809909681/cedar-planter-plans-raised-planter-box?click_key=92db0aaa0be5149372b128adfc38f7f5ab99f89b%3A809909681&amp;click_sum=c0e20248&amp;ref=shop_home_active_1&amp;crt=1</t>
         </is>
       </c>
     </row>
@@ -496,17 +486,12 @@
           <t>Planter Box Plans / Raised Planter Plan / Wood Planter / Outdoor Planter / Garden Bed / Elevated Cedar Garden Bed</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5 97</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>27</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/795492111/planter-box-plans-raised-planter-plan?click_key=47b9070b06c0a8b833430ddccd10e8c743dc32ba%3A795492111&amp;click_sum=6a73e5b7&amp;ref=shop_home_active_3&amp;crt=1</t>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/in-en/listing/795492111/planter-box-plans-raised-planter-plan?click_key=5b9f1c30d680bb48e87b5a9a047705c0807d32ad%3A795492111&amp;click_sum=4ea3464d&amp;ref=shop_home_active_3&amp;crt=1</t>
         </is>
       </c>
     </row>
@@ -521,17 +506,12 @@
           <t>Build-Your-Own-Pergola-15x15-DIY-Plans-Pergola-Plans</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10 80</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>12</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/889844275/build-your-own-pergola-15x15-diy-plans?click_key=72899d9b4aaeb5b4048c28509a5eb7b3af3ce31e%3A889844275&amp;click_sum=708665c0&amp;ref=shop_home_active_5</t>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/in-en/listing/889844275/build-your-own-pergola-15x15-diy-plans?click_key=80b5bb758e9bfa9aff65181b50b5c379532519e1%3A889844275&amp;click_sum=7c661ce5&amp;ref=shop_home_active_5</t>
         </is>
       </c>
     </row>
@@ -546,17 +526,12 @@
           <t>Sandbox plan with benches/Sandbox with Cover/ DIY sandbox plan 48" × 48"</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5 40</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>13</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/717218387/sandbox-plan-with-benchessandbox-with?click_key=32d66a208038bc1b015c338c068831c7efc5c396%3A717218387&amp;click_sum=732701c3&amp;ref=shop_home_active_13&amp;crt=1</t>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/in-en/listing/717218387/sandbox-plan-with-benchessandbox-with?click_key=4c5a48e4bb9aca83cc0bb5cd9e7eef7b58a90e29%3A717218387&amp;click_sum=25d934fc&amp;ref=shop_home_active_13&amp;crt=1</t>
         </is>
       </c>
     </row>
@@ -571,17 +546,12 @@
           <t>Raised Garden Planter Plans / PDF Plans / Raised Planter Plans / Garden Bed / Corrugated Metal Planter / Steel Planter / DIY planter</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>6 87</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>53</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/805306334/raised-garden-planter-plans-pdf-plans?click_key=956ab018a73843d1109b55b4ef3f945d8e47de25%3A805306334&amp;click_sum=bcbf51df&amp;ref=shop_home_active_18</t>
+      <c r="C6" t="n">
+        <v>67</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/in-en/listing/805306334/raised-garden-planter-plans-pdf-plans?click_key=40ed4a302d650069ad856ab8c8ddaf7fd3bd3d5a%3A805306334&amp;click_sum=4f399c8f&amp;ref=shop_home_active_18</t>
         </is>
       </c>
     </row>
@@ -596,17 +566,12 @@
           <t>DIY Vertical Ladder Planter Plan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4 79</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>8</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/959413857/diy-vertical-ladder-planter-plan?click_key=dfd8234081a01f7a55928109b27a5cef71e6cd07%3A959413857&amp;click_sum=a089c55c&amp;ref=shop_home_active_1</t>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/in-en/listing/959413857/diy-vertical-ladder-planter-plan?click_key=d333b353f38c6994ceb2ced71255794d20c11c13%3A959413857&amp;click_sum=d0c5dac3&amp;ref=shop_home_active_1</t>
         </is>
       </c>
     </row>
@@ -621,17 +586,12 @@
           <t>Vintage Sled Plans / DIY Plans / Decorative Sled Plans</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2 90</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/880943800/vintage-sled-plans-diy-plans-decorative?click_key=f8cc1660280777c31e7113b8a2a4e3fc9d6e272e%3A880943800&amp;click_sum=82098de1&amp;ref=shop_home_active_7</t>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/in-en/listing/880943800/vintage-sled-plans-diy-plans-decorative?click_key=4ff06659682f29f546a9aa20d1b7f176a634cb61%3A880943800&amp;click_sum=c69b0a60&amp;ref=shop_home_active_7</t>
         </is>
       </c>
     </row>
@@ -646,17 +606,12 @@
           <t>Wood Bench Plan / Pool Bench Plan / Patio Bench / Garden Bench / Porch bench / DIY Bench</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4 99</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/832380413/wood-bench-plan-pool-bench-plan-patio?click_key=c88045c174b90fe0eb34d0e94eaa9cdd1e138178%3A832380413&amp;click_sum=da057910&amp;ref=shop_home_active_19</t>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/in-en/listing/832380413/wood-bench-plan-pool-bench-plan-patio?click_key=21c3d3181781563de674c2a36fb9aa86ffac21be%3A832380413&amp;click_sum=fe6be0e0&amp;ref=shop_home_active_19</t>
         </is>
       </c>
     </row>
@@ -668,20 +623,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DIY Planter Boxes plans / planter box plans/pdf plan/ garden box plan/ box plan/ decor planter / patio planter</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>5 40</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/786916100/diy-planter-boxes-plans-planter-box?click_key=7dcb664617a9e9879e342f02280c350384c0ae67%3A786916100&amp;click_sum=090874e0&amp;ref=shop_home_active_3</t>
+          <t>DIY Planter Boxes plans / planter box plans/pdf plan/ garden box plan/  box plan/ decor planter / patio planter</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/in-en/listing/786916100/diy-planter-boxes-plans-planter-box?click_key=e79cfe64185e24d138bfbe51fa64e16d903ed047%3A786916100&amp;click_sum=656fe92c&amp;ref=shop_home_active_3</t>
         </is>
       </c>
     </row>
@@ -696,17 +646,12 @@
           <t>All Shop Plans Bundle / Plans bundle / Pergola plans / Planter box / Raised planter / Garden bed / Ladder planter / Patio chair / Sand box</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>26 87</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/1002128943/all-shop-plans-bundle-plans-bundle?click_key=dff72eb934b0645cc7b943918069119e7310157e%3A1002128943&amp;click_sum=1943f560&amp;ref=shop_home_active_2</t>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/in-en/listing/1002128943/all-shop-plans-bundle-plans-bundle?click_key=fbaf09e1d19cc3be1d62e2799409fbe763917917%3A1002128943&amp;click_sum=faa52bb7&amp;ref=shop_home_active_2</t>
         </is>
       </c>
     </row>
@@ -721,17 +666,12 @@
           <t>Build Your Own Pergola / 16'x16' / DIY Plans/Pergola Plans</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>9 87</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/955271043/build-your-own-pergola-16x16-diy?click_key=86a3fa60c5efd772f474384fae62c2c29a59ddab%3A955271043&amp;click_sum=f37d6117&amp;ref=shop_home_active_4</t>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/in-en/listing/955271043/build-your-own-pergola-16x16-diy?click_key=9fbb55bc5e41604168dea4424b1057f755c48109%3A955271043&amp;click_sum=6d52e651&amp;ref=shop_home_active_4</t>
         </is>
       </c>
     </row>
@@ -746,17 +686,12 @@
           <t>Chair Plans/Outdoor Furniture/Patio Chair/PDF Plans/Patio Furniture</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>5 40</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13" t="n">
         <v>1</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/829961205/chair-plansoutdoor-furniturepatio?click_key=e5000b698b4b8033f347f5ce02b78b3345ae0f74%3A829961205&amp;click_sum=4e6602e9&amp;ref=shop_home_active_7</t>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/in-en/listing/829961205/chair-plansoutdoor-furniturepatio?click_key=e9778defa06c758febe18142679f87ca84b76876%3A829961205&amp;click_sum=4067fb5e&amp;ref=shop_home_active_7</t>
         </is>
       </c>
     </row>
